--- a/mm_plots.xlsx
+++ b/mm_plots.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="20340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="28800" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
-    <sheet name="#2" sheetId="2" r:id="rId2"/>
-    <sheet name="#4a" sheetId="3" r:id="rId3"/>
+    <sheet name="#1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="#2" sheetId="2" r:id="rId3"/>
+    <sheet name="#4a" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>[S] (M)</t>
   </si>
@@ -105,20 +106,55 @@
   </si>
   <si>
     <t>ΔG (kcal/mol)</t>
+  </si>
+  <si>
+    <t>V0 (mm^3/min)</t>
+  </si>
+  <si>
+    <t>1/V0'</t>
+  </si>
+  <si>
+    <t>V0'/[S]</t>
+  </si>
+  <si>
+    <t>[S]/V0'</t>
+  </si>
+  <si>
+    <t>V0' (M/sec)</t>
+  </si>
+  <si>
+    <t>[(1 atm x V0 mm^3/min x 10^-6 L/mm^3 x 1min/60sec)/(0.082057 x 273.15K)] mol / 1L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,10 +177,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -160,8 +206,21 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,11 +335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111227384"/>
-        <c:axId val="2103619832"/>
+        <c:axId val="2093971048"/>
+        <c:axId val="2093973832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111227384"/>
+        <c:axId val="2093971048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -290,12 +349,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103619832"/>
+        <c:crossAx val="2093973832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2103619832"/>
+        <c:axId val="2093973832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -306,7 +365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111227384"/>
+        <c:crossAx val="2093971048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -430,11 +489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112400456"/>
-        <c:axId val="2112403176"/>
+        <c:axId val="2093105960"/>
+        <c:axId val="2093103192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112400456"/>
+        <c:axId val="2093105960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,12 +503,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112403176"/>
+        <c:crossAx val="2093103192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112403176"/>
+        <c:axId val="2093103192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112400456"/>
+        <c:crossAx val="2093105960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -584,11 +643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110641352"/>
-        <c:axId val="2108420984"/>
+        <c:axId val="2093074632"/>
+        <c:axId val="2093071864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110641352"/>
+        <c:axId val="2093074632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,12 +657,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108420984"/>
+        <c:crossAx val="2093071864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108420984"/>
+        <c:axId val="2093071864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110641352"/>
+        <c:crossAx val="2093074632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -632,6 +691,468 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lineweaver-Burk</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.161316011363489"/>
+                  <c:y val="-0.284"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'#1 (2)'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.8235294117647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'#1 (2)'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.10139863253012E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.084542075E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3315170029703E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.03762450454545E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.07524900909091E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2101795864"/>
+        <c:axId val="2101791352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2101795864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101791352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2101791352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101795864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eadie-Hofstee</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0652145057154271"/>
+                  <c:y val="-0.616026800997701"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'#1 (2)'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.46870952870935E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.42381257193407E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.51023079517001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.81535113824199E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.22691889228025E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'#1 (2)'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.23435476435467E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.22048137228793E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.51023079517001E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.90767556912099E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4538377845605E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2104848472"/>
+        <c:axId val="2104851240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2104848472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2104851240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2104851240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2104848472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hanes-Woolf</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.141814497452524"/>
+                  <c:y val="-0.275949367088608"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'#1 (2)'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'#1 (2)'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.05069931626506E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8437215275E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3315170029703E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01881225227273E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>815049.801818182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2101026024"/>
+        <c:axId val="2100338776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2101026024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2100338776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2100338776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101026024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -873,11 +1394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110735640"/>
-        <c:axId val="2114199928"/>
+        <c:axId val="2093011272"/>
+        <c:axId val="2093008280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110735640"/>
+        <c:axId val="2093011272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,12 +1408,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114199928"/>
+        <c:crossAx val="2093008280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114199928"/>
+        <c:axId val="2093008280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +1424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110735640"/>
+        <c:crossAx val="2093011272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1046,6 +1567,107 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1405,7 +2027,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1594,6 +2216,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C3" s="7">
+        <f>(B3*POWER(10,-6)/60)/(0.082057*273.15)</f>
+        <v>1.2343547643546746E-8</v>
+      </c>
+      <c r="D3" s="7">
+        <f>1/A3</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <f>1/C3</f>
+        <v>81013986.325301215</v>
+      </c>
+      <c r="F3" s="7">
+        <f>C3/A3</f>
+        <v>2.4687095287093489E-7</v>
+      </c>
+      <c r="G3" s="7">
+        <f>A3/C3</f>
+        <v>4050699.3162650606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C7" si="0">(B4*POWER(10,-6)/60)/(0.082057*273.15)</f>
+        <v>9.2204813722879296E-9</v>
+      </c>
+      <c r="D4" s="7">
+        <f>1/A4</f>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E7" si="1">1/C4</f>
+        <v>108454207.50000001</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F7" si="2">C4/A4</f>
+        <v>5.4238125719340756E-7</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G7" si="3">A4/C4</f>
+        <v>1843721.5275000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5102307951700079E-9</v>
+      </c>
+      <c r="D5" s="7">
+        <f>1/A5</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>133151700.2970297</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
+        <v>7.5102307951700081E-7</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="3"/>
+        <v>1331517.0029702971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9076755691209945E-9</v>
+      </c>
+      <c r="D6" s="7">
+        <f>1/A6</f>
+        <v>200</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>203762450.4545455</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>9.8153511382419889E-7</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="3"/>
+        <v>1018812.2522727274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4538377845604973E-9</v>
+      </c>
+      <c r="D7" s="7">
+        <f>1/A7</f>
+        <v>500</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>407524900.909091</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2269188922802487E-6</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="3"/>
+        <v>815049.80181818199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1661,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E13" si="0">1/B3</f>
+        <f t="shared" ref="E3:E12" si="0">1/B3</f>
         <v>0.5</v>
       </c>
       <c r="F3" s="4">
@@ -1887,7 +2714,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1897,11 +2723,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
